--- a/doc/Manual/Batchmode/SettlementFile.xlsx
+++ b/doc/Manual/Batchmode/SettlementFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\Desktop\RS3_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s02tp3\github\rs_batch_dev\doc\Manual\Batchmode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A916AB-B69F-4591-8AE4-4FB3D02E120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC2A047-01A4-42F5-B3C8-B13F7AC34365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description Kernels" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,24 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -349,7 +331,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -376,8 +358,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,32 +369,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -724,102 +696,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -829,11 +798,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -843,177 +812,177 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61"/>
     </row>
   </sheetData>
@@ -1026,32 +995,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:W1048576"/>
+      <selection pane="bottomRight" sqref="A1:N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1088,14 +1057,14 @@
       <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1132,14 +1101,14 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N2" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>-9</v>
+      </c>
+      <c r="N2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1183,7 +1152,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1217,17 +1186,17 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>-9</v>
+      </c>
+      <c r="M4">
+        <v>-9</v>
+      </c>
+      <c r="N4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1264,14 +1233,14 @@
       <c r="L5">
         <v>0.8</v>
       </c>
-      <c r="M5" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>-9</v>
+      </c>
+      <c r="N5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1296,10 +1265,10 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6">
+        <v>-9</v>
+      </c>
+      <c r="J6">
         <v>-9</v>
       </c>
       <c r="K6">
@@ -1308,14 +1277,14 @@
       <c r="L6">
         <v>0.75</v>
       </c>
-      <c r="M6" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N6" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>-9</v>
+      </c>
+      <c r="N6">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1340,10 +1309,10 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="I7">
+        <v>-9</v>
+      </c>
+      <c r="J7">
         <v>-9</v>
       </c>
       <c r="K7">
@@ -1352,14 +1321,14 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N7" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>-9</v>
+      </c>
+      <c r="N7">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1384,10 +1353,10 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8">
+        <v>-9</v>
+      </c>
+      <c r="J8">
         <v>-9</v>
       </c>
       <c r="K8">
@@ -1396,14 +1365,14 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N8" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>-9</v>
+      </c>
+      <c r="N8">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1428,10 +1397,10 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="I9">
+        <v>-9</v>
+      </c>
+      <c r="J9">
         <v>-9</v>
       </c>
       <c r="K9">
@@ -1440,14 +1409,14 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N9" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>-9</v>
+      </c>
+      <c r="N9">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1472,10 +1441,10 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="I10">
+        <v>-9</v>
+      </c>
+      <c r="J10">
         <v>-9</v>
       </c>
       <c r="K10">
@@ -1484,14 +1453,14 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N10" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>-9</v>
+      </c>
+      <c r="N10">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1535,7 +1504,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1579,7 +1548,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1604,10 +1573,10 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="I13">
+        <v>-9</v>
+      </c>
+      <c r="J13">
         <v>-9</v>
       </c>
       <c r="K13">
@@ -1623,7 +1592,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1648,10 +1617,10 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="I14">
+        <v>-9</v>
+      </c>
+      <c r="J14">
         <v>-9</v>
       </c>
       <c r="K14">
@@ -1667,7 +1636,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1692,10 +1661,10 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J15" s="14">
+      <c r="I15">
+        <v>-9</v>
+      </c>
+      <c r="J15">
         <v>-9</v>
       </c>
       <c r="K15">
@@ -1711,7 +1680,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1736,10 +1705,10 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="I16">
+        <v>-9</v>
+      </c>
+      <c r="J16">
         <v>-9</v>
       </c>
       <c r="K16">
@@ -1755,7 +1724,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1789,17 +1758,17 @@
       <c r="K17">
         <v>25</v>
       </c>
-      <c r="L17" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M17" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N17" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>-9</v>
+      </c>
+      <c r="M17">
+        <v>-9</v>
+      </c>
+      <c r="N17">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1824,26 +1793,26 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="I18">
+        <v>-9</v>
+      </c>
+      <c r="J18">
         <v>-9</v>
       </c>
       <c r="K18">
         <v>30</v>
       </c>
-      <c r="L18" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M18" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N18" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>-9</v>
+      </c>
+      <c r="M18">
+        <v>-9</v>
+      </c>
+      <c r="N18">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1868,26 +1837,26 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J19" s="14">
+      <c r="I19">
+        <v>-9</v>
+      </c>
+      <c r="J19">
         <v>-9</v>
       </c>
       <c r="K19">
         <v>40</v>
       </c>
-      <c r="L19" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M19" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N19" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <v>-9</v>
+      </c>
+      <c r="M19">
+        <v>-9</v>
+      </c>
+      <c r="N19">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1912,26 +1881,26 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="I20">
+        <v>-9</v>
+      </c>
+      <c r="J20">
         <v>-9</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M20" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N20" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>-9</v>
+      </c>
+      <c r="M20">
+        <v>-9</v>
+      </c>
+      <c r="N20">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1956,26 +1925,26 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J21" s="14">
+      <c r="I21">
+        <v>-9</v>
+      </c>
+      <c r="J21">
         <v>-9</v>
       </c>
       <c r="K21">
         <v>40</v>
       </c>
-      <c r="L21" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M21" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N21" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>-9</v>
+      </c>
+      <c r="M21">
+        <v>-9</v>
+      </c>
+      <c r="N21">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2000,22 +1969,22 @@
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J22" s="14">
+      <c r="I22">
+        <v>-9</v>
+      </c>
+      <c r="J22">
         <v>-9</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M22" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N22" s="14">
+      <c r="L22">
+        <v>-9</v>
+      </c>
+      <c r="M22">
+        <v>-9</v>
+      </c>
+      <c r="N22">
         <v>-9</v>
       </c>
     </row>
@@ -2029,66 +1998,64 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
         <v>3</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="28">
         <v>-9</v>
       </c>
     </row>
@@ -2102,112 +2069,110 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28">
+        <v>0</v>
+      </c>
+      <c r="E2" s="28">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
         <v>1</v>
       </c>
     </row>
@@ -2221,24 +2186,21 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2261,95 +2223,95 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5">
         <v>-9</v>
       </c>
     </row>
@@ -2363,24 +2325,21 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2403,8 +2362,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2426,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2449,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2472,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2495,8 +2454,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
@@ -2518,8 +2477,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
@@ -2541,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2564,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2587,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2610,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2633,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2656,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2689,139 +2648,136 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2831,11 +2787,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2845,11 +2801,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2859,151 +2815,151 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50"/>
     </row>
   </sheetData>
@@ -3016,31 +2972,28 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:W1048576"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3077,27 +3030,27 @@
       <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -3106,7 +3059,7 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
@@ -3115,33 +3068,33 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2">
         <v>-9</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N2" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>-9</v>
+      </c>
+      <c r="N2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
@@ -3150,7 +3103,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
@@ -3159,7 +3112,7 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3">
         <v>-9</v>
       </c>
       <c r="L3">
@@ -3172,20 +3125,20 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -3194,7 +3147,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
@@ -3203,16 +3156,16 @@
       <c r="J4">
         <v>85</v>
       </c>
-      <c r="K4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="L4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="14">
+      <c r="K4">
+        <v>-9</v>
+      </c>
+      <c r="L4">
+        <v>-9</v>
+      </c>
+      <c r="M4">
+        <v>-9</v>
+      </c>
+      <c r="N4">
         <v>-9</v>
       </c>
     </row>
@@ -3226,31 +3179,28 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:W1048576"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3287,24 +3237,24 @@
       <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
@@ -3325,30 +3275,30 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2">
         <v>-9</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N2" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>-9</v>
+      </c>
+      <c r="N2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
@@ -3369,7 +3319,7 @@
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3">
         <v>-9</v>
       </c>
       <c r="L3">
@@ -3382,17 +3332,17 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
@@ -3413,30 +3363,30 @@
       <c r="J4">
         <v>85</v>
       </c>
-      <c r="K4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="L4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>-9</v>
+      </c>
+      <c r="L4">
+        <v>-9</v>
+      </c>
+      <c r="M4">
+        <v>-9</v>
+      </c>
+      <c r="N4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
@@ -3463,24 +3413,24 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>-9</v>
+      </c>
+      <c r="N5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
@@ -3495,10 +3445,10 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="I6">
+        <v>-9</v>
+      </c>
+      <c r="J6">
         <v>-9</v>
       </c>
       <c r="K6">
@@ -3507,24 +3457,24 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N6" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>-9</v>
+      </c>
+      <c r="N6">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
@@ -3558,17 +3508,17 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
@@ -3583,10 +3533,10 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J8" s="14">
+      <c r="I8">
+        <v>-9</v>
+      </c>
+      <c r="J8">
         <v>-9</v>
       </c>
       <c r="K8">
@@ -3602,17 +3552,17 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
@@ -3633,30 +3583,30 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="14">
-        <v>-9</v>
-      </c>
-      <c r="L9" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M9" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N9" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>-9</v>
+      </c>
+      <c r="L9">
+        <v>-9</v>
+      </c>
+      <c r="M9">
+        <v>-9</v>
+      </c>
+      <c r="N9">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
@@ -3671,22 +3621,22 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="K10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="L10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N10" s="14">
+      <c r="I10">
+        <v>-9</v>
+      </c>
+      <c r="J10">
+        <v>-9</v>
+      </c>
+      <c r="K10">
+        <v>-9</v>
+      </c>
+      <c r="L10">
+        <v>-9</v>
+      </c>
+      <c r="M10">
+        <v>-9</v>
+      </c>
+      <c r="N10">
         <v>-9</v>
       </c>
     </row>
@@ -3700,31 +3650,28 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:W1048576"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3761,27 +3708,27 @@
       <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -3790,7 +3737,7 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
@@ -3805,27 +3752,27 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N2" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>-9</v>
+      </c>
+      <c r="N2">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
@@ -3834,7 +3781,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
@@ -3856,20 +3803,20 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -3878,7 +3825,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
@@ -3890,30 +3837,30 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M4" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N4" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>-9</v>
+      </c>
+      <c r="M4">
+        <v>-9</v>
+      </c>
+      <c r="N4">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
@@ -3922,7 +3869,7 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
@@ -3937,27 +3884,27 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N5" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>-9</v>
+      </c>
+      <c r="N5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
@@ -3966,13 +3913,13 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-9</v>
+      </c>
+      <c r="J6">
         <v>-9</v>
       </c>
       <c r="K6">
@@ -3981,27 +3928,27 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N6" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>-9</v>
+      </c>
+      <c r="N6">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
@@ -4010,13 +3957,13 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-9</v>
+      </c>
+      <c r="J7">
         <v>-9</v>
       </c>
       <c r="K7">
@@ -4025,27 +3972,27 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N7" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>-9</v>
+      </c>
+      <c r="N7">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
@@ -4054,7 +4001,7 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
@@ -4076,20 +4023,20 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
@@ -4098,13 +4045,13 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-9</v>
+      </c>
+      <c r="J9">
         <v>-9</v>
       </c>
       <c r="K9">
@@ -4120,20 +4067,20 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
@@ -4142,13 +4089,13 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-9</v>
+      </c>
+      <c r="J10">
         <v>-9</v>
       </c>
       <c r="K10">
@@ -4164,20 +4111,20 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
@@ -4186,7 +4133,7 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
@@ -4198,30 +4145,30 @@
       <c r="K11">
         <v>25</v>
       </c>
-      <c r="L11" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M11" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N11" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>-9</v>
+      </c>
+      <c r="M11">
+        <v>-9</v>
+      </c>
+      <c r="N11">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
@@ -4230,42 +4177,42 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J12" s="14">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-9</v>
+      </c>
+      <c r="J12">
         <v>-9</v>
       </c>
       <c r="K12">
         <v>30</v>
       </c>
-      <c r="L12" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M12" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N12" s="14">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>-9</v>
+      </c>
+      <c r="M12">
+        <v>-9</v>
+      </c>
+      <c r="N12">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
@@ -4274,25 +4221,25 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>-9</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-9</v>
+      </c>
+      <c r="J13">
         <v>-9</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="14">
-        <v>-9</v>
-      </c>
-      <c r="M13" s="14">
-        <v>-9</v>
-      </c>
-      <c r="N13" s="14">
+      <c r="L13">
+        <v>-9</v>
+      </c>
+      <c r="M13">
+        <v>-9</v>
+      </c>
+      <c r="N13">
         <v>-9</v>
       </c>
     </row>
